--- a/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
+++ b/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
   <si>
     <t>3주차</t>
   </si>
@@ -166,10 +166,6 @@
   </si>
   <si>
     <t>1차 상세코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ 상세코딩 / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -431,16 +427,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차 주제선정 및 분석 / 설계
-와이어프레이밍 제출(금)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 분석 / UI디자인
-포토샵 화면 디자인 작업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 분석 / UI디자인
 포토샵 화면 디자인 작업
 1차 제출(7/29:화)</t>
@@ -518,6 +504,27 @@
   <si>
     <t>1차 테스트/수정/배포
 2차 미니팀PJ 팀구성/주제선정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 주제선정 및 분석 / 설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 응용연습
+그래픽 응용(웹사이트 디자인)
+프로토타이핑(Figma)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 분석 / UI디자인
+포토샵 화면 디자인 작업
+와이어프레이밍 제출(수)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 상세코딩 / CGV PJ
+과목평가제출주간(금요일까지)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,9 +945,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -986,9 +990,6 @@
     <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,6 +1017,30 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,29 +1062,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1374,7 +1378,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1395,41 +1399,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="B2" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>31</v>
@@ -1537,131 +1541,131 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <v>45834</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="D8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="42">
         <v>45835</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="44">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>80</v>
+      <c r="G8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="49">
         <v>45838</v>
       </c>
-      <c r="D9" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="58">
+      <c r="D9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="49">
         <v>45842</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="51">
         <f t="shared" ref="F9:F27" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="63"/>
+      <c r="G9" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="49">
         <v>45845</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="49">
         <v>45849</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="42"/>
+      <c r="G10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="36">
         <v>45852</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="36">
         <v>45856</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="38">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="23"/>
+      <c r="G11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="63"/>
+      <c r="I11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B12" s="17" t="s">
@@ -1681,17 +1685,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L12" s="23"/>
     </row>
@@ -1708,22 +1712,22 @@
       <c r="E13" s="18">
         <v>45867</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L13" s="23"/>
     </row>
@@ -1745,21 +1749,21 @@
         <v>5</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>40</v>
+      <c r="H14" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="J14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B15" s="17" t="s">
@@ -1774,22 +1778,22 @@
       <c r="E15" s="18">
         <v>45883</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f>DAYS360(C15,E15)+1</f>
         <v>4</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L15" s="23"/>
     </row>
@@ -1811,17 +1815,17 @@
         <v>5</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16" s="23"/>
     </row>
@@ -1843,22 +1847,22 @@
         <v>5</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>113</v>
+        <v>42</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1879,17 +1883,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="23"/>
     </row>
@@ -1911,19 +1915,19 @@
         <v>5</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="31" t="s">
         <v>68</v>
       </c>
+      <c r="H19" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="I19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19" s="23"/>
     </row>
@@ -1945,19 +1949,19 @@
         <v>5</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -1979,17 +1983,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="64" t="s">
-        <v>108</v>
+        <v>48</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>105</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21" s="23"/>
     </row>
@@ -2006,22 +2010,22 @@
       <c r="E22" s="18">
         <v>45932</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L22" s="23"/>
     </row>
@@ -2038,22 +2042,22 @@
       <c r="E23" s="18">
         <v>45940</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" s="23"/>
     </row>
@@ -2075,19 +2079,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L24" s="23"/>
     </row>
@@ -2109,19 +2113,19 @@
         <v>5</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L25" s="23"/>
     </row>
@@ -2143,22 +2147,22 @@
         <v>5</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="56.45" customHeight="1">
@@ -2179,21 +2183,21 @@
         <v>5</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:12" ht="56.45" customHeight="1">
       <c r="B28" s="17" t="s">
@@ -2213,19 +2217,19 @@
         <v>5</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="27"/>
+        <v>76</v>
+      </c>
+      <c r="H28" s="26"/>
       <c r="I28" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="56.45" customHeight="1">
       <c r="B29" s="17" t="s">
@@ -2240,27 +2244,27 @@
       <c r="E29" s="18">
         <v>45979</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="32">
         <f>DAYS360(C29,E29)+1</f>
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2272,32 +2276,32 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="2:12" s="5" customFormat="1" ht="25.7">
-      <c r="B32" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
+      <c r="B32" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" s="2" t="s">

--- a/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
+++ b/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\웹퍼블리셔과정_탐\github\WPC-626-TOM\001.일정관리\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0DBA5-A126-4063-B369-C586B0900A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19387" windowHeight="12987"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -185,10 +191,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>도깨비 PJ 프로토타이핑 / CGV PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ 상세코딩 / CGV PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -525,13 +527,17 @@
   <si>
     <t>도깨비 PJ 상세코딩 / CGV PJ
 과목평가제출주간(금요일까지)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -1041,6 +1047,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,17 +1069,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
-    <cellStyle name="표준 3" xfId="3"/>
-    <cellStyle name="표준 4" xfId="1"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1128,7 +1134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,9 +1167,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,6 +1219,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1371,69 +1411,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.38671875" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.71875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.71875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1"/>
+    <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>31</v>
@@ -1558,16 +1598,16 @@
         <v>2</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
       <c r="K8" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1588,17 +1628,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="50" t="s">
         <v>41</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" s="54"/>
     </row>
@@ -1620,17 +1660,17 @@
         <v>5</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="50" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="54"/>
     </row>
@@ -1653,17 +1693,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="63"/>
+        <v>56</v>
+      </c>
+      <c r="H11" s="56"/>
       <c r="I11" s="37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L11" s="40"/>
     </row>
@@ -1685,17 +1725,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="19" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L12" s="23"/>
     </row>
@@ -1717,17 +1757,17 @@
         <v>2</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="23"/>
     </row>
@@ -1749,19 +1789,19 @@
         <v>5</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L14" s="24"/>
     </row>
@@ -1783,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="22" t="s">
@@ -1793,7 +1833,7 @@
         <v>33</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L15" s="23"/>
     </row>
@@ -1815,17 +1855,17 @@
         <v>5</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" s="23"/>
     </row>
@@ -1847,22 +1887,22 @@
         <v>5</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1" ht="56.45" customHeight="1">
@@ -1883,17 +1923,17 @@
         <v>5</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="23"/>
     </row>
@@ -1915,19 +1955,19 @@
         <v>5</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="23"/>
     </row>
@@ -1949,19 +1989,19 @@
         <v>5</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -1983,17 +2023,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L21" s="23"/>
     </row>
@@ -2015,17 +2055,17 @@
         <v>4</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="22" t="s">
         <v>43</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L22" s="23"/>
     </row>
@@ -2047,17 +2087,17 @@
         <v>1</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="22" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="23"/>
     </row>
@@ -2079,19 +2119,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="23"/>
     </row>
@@ -2113,19 +2153,19 @@
         <v>5</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L25" s="23"/>
     </row>
@@ -2147,22 +2187,22 @@
         <v>5</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="56.45" customHeight="1">
@@ -2183,19 +2223,19 @@
         <v>5</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L27" s="25"/>
     </row>
@@ -2217,17 +2257,17 @@
         <v>5</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28" s="24"/>
     </row>
@@ -2249,22 +2289,22 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="27" t="s">
         <v>77</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="47.25" customHeight="1" thickBot="1">
@@ -2276,32 +2316,32 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="2:12" s="5" customFormat="1" ht="25.7">
-      <c r="B32" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1" ht="26.25">
+      <c r="B32" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" s="2" t="s">
@@ -2323,12 +2363,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2336,12 +2376,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
+++ b/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\웹퍼블리셔과정_탐\github\WPC-626-TOM\001.일정관리\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0DBA5-A126-4063-B369-C586B0900A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Hi-Media 반응형 웹퍼블리셔 1회차 주별 상세일정" sheetId="1" r:id="rId1"/>
@@ -537,7 +531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ &quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
@@ -878,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,9 +1041,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,14 +1060,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 3" xfId="3"/>
+    <cellStyle name="표준 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1134,7 +1131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1167,26 +1164,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,23 +1199,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1411,14 +1374,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1439,41 +1402,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1675,69 +1638,69 @@
       <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="49">
         <v>45852</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="49">
         <v>45856</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="51">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="37" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="36">
         <v>45859</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="36">
         <v>45863</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B13" s="17" t="s">
@@ -2316,32 +2279,32 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="2:12" s="5" customFormat="1" ht="26.25">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" s="2" t="s">
@@ -2363,7 +2326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2376,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
